--- a/Solution Book.xlsx
+++ b/Solution Book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\leet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED88B0F-C12E-4A36-8B7A-40F57C2D478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F1E75B-C54D-469E-AF15-A8775DAA67CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Data Structure</t>
   </si>
@@ -95,12 +95,42 @@
 3. check if all rows are canceled (if !top&lt;=bot), if yes return false
 4. Run binary search on the selected row </t>
   </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>1. Initialize l, r to 1, max(piles) and res to r or max(piles)
+2. While l &lt;= r:
+	initialize hours = 0 
+	k to mid i.e (l+r)//2
+	iterate on p of piles:
+		add math.ceil(p / k) to hours
+	if hours &lt;= h:
+		init res = min (res, k)
+		shift r to low range		
+	else:
+		shift l to high range
+3. return res</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>1. initialize result to any random element
+2. initialize l and r
+3. While l&lt;=r
+	if nums[l] &lt; nums[r] that means arr is sorted assign res = minimum of res, nums[l] and break
+	inititalize mid and assign res = min(res, nums[m]) (# at some point m and l will be equal)
+	if l &lt;= m, move l pointer to the right
+	else move, move r pointer to the left
+4. return result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,20 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A022EF-BEC8-455B-9F76-8C8337E88E29}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="170.25" customHeight="1">
+    <row r="3" spans="1:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -530,6 +561,34 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -546,13 +605,13 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="85.5">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>

--- a/Solution Book.xlsx
+++ b/Solution Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F1E75B-C54D-469E-AF15-A8775DAA67CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABB70F-4C13-4EE0-B1AB-30732CB81DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Data Structure</t>
   </si>
@@ -124,6 +124,52 @@
 	if l &lt;= m, move l pointer to the right
 	else move, move r pointer to the left
 4. return result</t>
+  </si>
+  <si>
+    <t>Search in Roatated Sorted Array</t>
+  </si>
+  <si>
+    <t>1. Initialize l, r pointers and mid
+2. while l&lt;=r
+	if nums[mid] is target, return mid pointer
+	if left &lt;= mid, we are in the left sorted array
+		if target &gt; mid or target &lt; left, move the left pointer to the right sorted array
+		else move the right pointer to the left sorted array
+	else
+		if target &lt; mid or target &gt; right, move right pointer to the left sorted array
+		else move the left pointer to the right sorted array
+3. return -1</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>1. __init__ : define store i.e {} in dictionary
+2. set      : if the key is not in store, initialize key and store [value, timestamp]
+3. get	    : initialize res = ''
+	      get the values for the provided key
+	      initialize left and right pointers
+              while l&lt;=r:
+			initialize mid
+			if mid timestamp &lt;= timestamp:
+				assign value to result
+				move left pointer to the right
+			else, move right pointer to the left
+	      return result</t>
+  </si>
+  <si>
+    <t>Sliding Window Fixed Size</t>
+  </si>
+  <si>
+    <t>1. Initialize a set &amp; left pointer
+2. For right pointer in range of len(arr)
+	if right - left + 1 &gt; window size:
+		remove left element from set
+		increment left by 1
+	if right pointer is in set:
+		return True
+	add right pointer element to the set
+3. Return False</t>
   </si>
 </sst>
 </file>
@@ -507,17 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A022EF-BEC8-455B-9F76-8C8337E88E29}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,6 +634,34 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -599,15 +672,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B297CE8A-D120-4168-813E-A2346A9D73EC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,6 +700,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Solution Book.xlsx
+++ b/Solution Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABB70F-4C13-4EE0-B1AB-30732CB81DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F2508-0977-4EE2-83E3-6E7B3BEC93D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Data Structure</t>
   </si>
@@ -170,6 +170,25 @@
 		return True
 	add right pointer element to the set
 3. Return False</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Length of longest Substring</t>
+  </si>
+  <si>
+    <t>1. Initialize set(), left, and result
+2. for right in range of string:
+	while s[r] in set:
+		remove the duplicate character s[r] from the set
+		move left pointer
+	add new character to the set
+	assign result the max from result and r - l + 1 (the window)
+3. return result</t>
   </si>
 </sst>
 </file>
@@ -553,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A022EF-BEC8-455B-9F76-8C8337E88E29}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +683,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -674,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B297CE8A-D120-4168-813E-A2346A9D73EC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution Book.xlsx
+++ b/Solution Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F2508-0977-4EE2-83E3-6E7B3BEC93D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C412A-8B92-42FC-BFAB-3560E1EF6423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Data Structure</t>
   </si>
@@ -190,12 +190,38 @@
 	assign result the max from result and r - l + 1 (the window)
 3. return result</t>
   </si>
+  <si>
+    <t>Permutation String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation String
+1. If s1 &gt; s2 return false
+2. make 2 arrays of length 26 (for 26 characters)
+4. set the alphabet positions to 1 for the initial window of size len(s1)
+5. Initialize matches = 0
+6. increment matches for all the matches in s1Arr and s2Arr
+7. Sliding Window
+	l = 0
+	for r in range(len(s1) to len(s2)):
+		return true if matches is 26
+		take the index for right pointer alphabet
+		increment the count in s2Arr
+		if it matches the index in s1Arr, increment matches
+		elif incremented s1Arr postion matches the position in s2Arr, decrement matches (cause it was not equal initialy)
+		take the index for left pointer alphabet
+		decrement the count in s2Arr
+		if it matches the index in s1Arr, increment matches
+		elif decremented s1Arr matches the position in s2Arr, decrement matches (cause it was not eqaul initialy)
+		increment left pointer
+8. return matches == 26
+	</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,20 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A022EF-BEC8-455B-9F76-8C8337E88E29}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="24" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="170.25" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -627,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="171">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -641,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="142.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -655,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="142.5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -669,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="171">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -683,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="114">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -695,6 +721,20 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.5">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -711,13 +751,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="85.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -733,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="128.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>

--- a/Solution Book.xlsx
+++ b/Solution Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar169\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C412A-8B92-42FC-BFAB-3560E1EF6423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA29050-A1AE-46B9-BC4F-11D55AF9B031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECD1A7DF-88F1-4771-B47A-D6D279053661}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Data Structure</t>
   </si>
@@ -215,6 +215,15 @@
 		increment left pointer
 8. return matches == 26
 	</t>
+  </si>
+  <si>
+    <t>Minimum Window Sub String</t>
+  </si>
+  <si>
+    <t>make map of both the strings
+take have and need(length of map of original string) and take res i.e l,r and windowLen
+search right pointer in the search map and move left pointer while the have is equal to len(string to search)
+return string[left: right+1]</t>
   </si>
 </sst>
 </file>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A022EF-BEC8-455B-9F76-8C8337E88E29}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E9:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -735,6 +744,20 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="114">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
